--- a/data/trans_bre/P19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,09%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,71; 1,22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 0,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,18</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 227,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,22%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,78; 577,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; 396,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,53; 431,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>234,14%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,11; 765,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,18; 438,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,84; 427,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>360,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 3,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 1,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,4; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,84; 385,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,08; 224,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,77; 437,62</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,58%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 1,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 1,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 163,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,75; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,82; 531,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,68; 254,51</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,64; -0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 1,66</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,64</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,7</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 60,51</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,83; 262,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,55; 188,29</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 0,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 77,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 147,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 98,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 125,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-53,09%</t>
+          <t>-65,86%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,18</t>
+          <t>-5,23; 0,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>34,61%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,74</t>
+          <t>-1,33; 1,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>234,14%</t>
+          <t>268,25%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,31</t>
+          <t>-0,16; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>108,68%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,98</t>
+          <t>-0,28; 2,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 437,62</t>
+          <t>-27,45; 715,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>33,66%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,34</t>
+          <t>-0,85; 1,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 254,51</t>
+          <t>-47,91; 251,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-69,25%</t>
+          <t>-57,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>131,91%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>-35,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>-26,1%</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,0</t>
+          <t>-3,19; 0,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,66</t>
+          <t>-1,34; 1,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,64</t>
+          <t>-3,05; 1,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,7</t>
+          <t>-1,55; 0,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 262,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 188,29</t>
+          <t>-83,96; 198,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-80,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>79,67%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,91; 0,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,12</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,55</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 1,06</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-75,76; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,48; 0,59</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,08; 1,05</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,47; 0,81</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 0,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 0,7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-34,54; 77,61</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-7,82; 147,41</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-31,63; 98,4</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; 125,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,94; 121,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,22</t>
+          <t>-1,69; 1,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,82</t>
+          <t>-2,32; 0,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,68</t>
+          <t>-1,16; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,69</t>
+          <t>-5,05; 0,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 227,0</t>
+          <t>-100,0; 204,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,08</t>
+          <t>-0,99; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,25</t>
+          <t>-1,07; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,66</t>
+          <t>-1,28; 1,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,43</t>
+          <t>-1,44; 1,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,78; 577,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 396,0</t>
+          <t>-86,05; 507,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 431,94</t>
+          <t>-73,13; 294,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,79</t>
+          <t>-0,57; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,84</t>
+          <t>-0,23; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,31</t>
+          <t>-0,81; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,33</t>
+          <t>-0,08; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 765,39</t>
+          <t>-54,66; 585,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 438,15</t>
+          <t>-24,98; 438,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,84; 427,55</t>
+          <t>-79,36; 712,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,45</t>
+          <t>0,39; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,0</t>
+          <t>-1,28; 2,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,03</t>
+          <t>-1,88; 0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,22</t>
+          <t>-0,34; 2,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; —</t>
+          <t>-20,26; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 385,05</t>
+          <t>-63,63; 493,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,08; 224,14</t>
+          <t>-86,45; 206,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 715,11</t>
+          <t>-31,79; 645,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,5</t>
+          <t>-3,79; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,91</t>
+          <t>-1,08; 1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,95</t>
+          <t>-1,57; 2,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,37</t>
+          <t>-0,68; 1,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,09</t>
+          <t>-100,0; 128,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-79,75; —</t>
+          <t>-80,84; 714,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 531,39</t>
+          <t>-60,83; 459,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 251,16</t>
+          <t>-43,67; 330,2</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,66</t>
+          <t>-3,32; 0,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,63</t>
+          <t>-1,23; 1,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,43</t>
+          <t>-3,11; 1,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,76</t>
+          <t>-1,77; 0,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,96; 198,39</t>
+          <t>-86,71; 160,64</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,1</t>
+          <t>-7,24; 0,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,12</t>
+          <t>0,36; 3,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,55</t>
+          <t>-1,85; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,06</t>
+          <t>-0,57; 1,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-75,76; —</t>
+          <t>-83,65; —</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,59</t>
+          <t>-0,65; 0,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,05</t>
+          <t>-0,15; 1,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>-0,44; 0,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,7</t>
+          <t>-0,38; 0,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 77,61</t>
+          <t>-45,7; 69,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 147,41</t>
+          <t>-13,4; 143,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 98,4</t>
+          <t>-30,54; 85,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 121,99</t>
+          <t>-31,39; 116,68</t>
         </is>
       </c>
     </row>
